--- a/Result/checkall/2025-02-24.xlsx
+++ b/Result/checkall/2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN1"/>
+  <dimension ref="A1:AQ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,162 +476,177 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>短增量</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>每股淨值(元)</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>短增level</t>
         </is>
       </c>
     </row>
